--- a/techniqo/data_new_ticker/INFIBEAM.xlsx
+++ b/techniqo/data_new_ticker/INFIBEAM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1102"/>
+  <dimension ref="A1:G1104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38956,6 +38956,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>1743076</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>83</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>83.95</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>1096984</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/INFIBEAM.xlsx
+++ b/techniqo/data_new_ticker/INFIBEAM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1104"/>
+  <dimension ref="A1:G1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39006,6 +39006,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>78</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>645246</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>6204548</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
